--- a/2019/Hobbs/Hobbs Report.xlsx
+++ b/2019/Hobbs/Hobbs Report.xlsx
@@ -1,33 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matt\Documents\GitHub\FitzFishing\Yearly Reports\2018\Hobbs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matt\Documents\GitHub\FitzFishing\2019\Hobbs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1617213-0035-4CA5-BBC9-626D5D9B51B0}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3524AE1-E644-4C90-B276-34F53CA67164}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="2" xr2:uid="{C8B061DF-F30D-4D8E-9A49-1A7B2522362C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{C8B061DF-F30D-4D8E-9A49-1A7B2522362C}"/>
   </bookViews>
   <sheets>
     <sheet name="2017" sheetId="2" r:id="rId1"/>
     <sheet name="2018" sheetId="1" r:id="rId2"/>
-    <sheet name="Overall Stats" sheetId="3" r:id="rId3"/>
+    <sheet name="2019" sheetId="4" r:id="rId3"/>
+    <sheet name="Overall Stats" sheetId="3" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="41">
   <si>
     <t>Lake/Pond</t>
   </si>
@@ -123,6 +130,33 @@
   </si>
   <si>
     <t>Slow</t>
+  </si>
+  <si>
+    <t>May</t>
+  </si>
+  <si>
+    <t>Fishing Report 2019 Hobbs</t>
+  </si>
+  <si>
+    <t>10 Cutthroat</t>
+  </si>
+  <si>
+    <t>18 Cutthroat</t>
+  </si>
+  <si>
+    <t>6 Cutthroat</t>
+  </si>
+  <si>
+    <t>11 Cutthroat</t>
+  </si>
+  <si>
+    <t>7 Cutthroat</t>
+  </si>
+  <si>
+    <t>4 Cutthroat</t>
+  </si>
+  <si>
+    <t>Cutthroat</t>
   </si>
 </sst>
 </file>
@@ -248,7 +282,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -292,8 +326,8 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -303,6 +337,10 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -541,13 +579,16 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Overall Stats'!$A$2:$B$2</c:f>
+              <c:f>'Overall Stats'!$A$2:$C$2</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>Bluegill</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>Cutthroat</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>Rainbow</c:v>
                 </c:pt>
               </c:strCache>
@@ -555,14 +596,17 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Overall Stats'!$A$3:$B$3</c:f>
+              <c:f>'Overall Stats'!$A$3:$C$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>72</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>14</c:v>
                 </c:pt>
               </c:numCache>
@@ -931,15 +975,61 @@
               </c:ext>
             </c:extLst>
           </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent3">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent3">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent3">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:sp3d/>
+            </c:spPr>
+          </c:dPt>
           <c:cat>
             <c:strRef>
-              <c:f>'Overall Stats'!$A$5:$B$5</c:f>
+              <c:f>'Overall Stats'!$A$5:$C$5</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>Bluegill</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>Cutthroat</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>Rainbow</c:v>
                 </c:pt>
               </c:strCache>
@@ -947,15 +1037,18 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Overall Stats'!$A$6:$B$6</c:f>
+              <c:f>'Overall Stats'!$A$6:$C$6</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>83.720930232558146</c:v>
+                  <c:v>50.704225352112672</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>16.279069767441861</c:v>
+                  <c:v>39.436619718309856</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.8591549295774641</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2781,7 +2874,7 @@
   <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="I2" sqref="I2:L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3033,17 +3126,271 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D5DC392-685C-416A-87D1-C03A819CE030}">
+  <dimension ref="A1:M13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="53.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="27" x14ac:dyDescent="0.5">
+      <c r="A1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="12"/>
+      <c r="G1" s="12"/>
+    </row>
+    <row r="2" spans="1:13" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="22"/>
+      <c r="D2" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="23"/>
+      <c r="L2" s="23"/>
+      <c r="M2" s="23"/>
+    </row>
+    <row r="3" spans="1:13" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="4"/>
+      <c r="B3" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G3" s="7"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+    </row>
+    <row r="4" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="7">
+        <v>28</v>
+      </c>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7">
+        <v>10</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F4" s="7">
+        <v>56</v>
+      </c>
+      <c r="G4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+    </row>
+    <row r="5" spans="1:13" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="7">
+        <v>29</v>
+      </c>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7">
+        <v>18</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F5" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" s="21"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="21"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+    </row>
+    <row r="6" spans="1:13" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7">
+        <v>2</v>
+      </c>
+      <c r="D6" s="7">
+        <v>6</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+    </row>
+    <row r="7" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7">
+        <v>3</v>
+      </c>
+      <c r="D7" s="7">
+        <v>11</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="F7" s="16">
+        <f>SUM(F4/D10*100)</f>
+        <v>100</v>
+      </c>
+      <c r="G7" s="16"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
+    </row>
+    <row r="8" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7">
+        <v>6</v>
+      </c>
+      <c r="D8" s="7">
+        <v>7</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
+    </row>
+    <row r="9" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7">
+        <v>10</v>
+      </c>
+      <c r="D9" s="7">
+        <v>4</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="7"/>
+    </row>
+    <row r="10" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="9">
+        <f>SUM(D4:D9)</f>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" s="10">
+        <f>AVERAGE(D4:D9)</f>
+        <v>9.3333333333333339</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" s="18" t="s">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="F5:I5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D162D8B-5DB0-4D2E-8378-13E141A72211}">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="21" thickBot="1" x14ac:dyDescent="0.35">
@@ -3059,6 +3406,9 @@
         <v>20</v>
       </c>
       <c r="B2" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" s="7" t="s">
         <v>19</v>
       </c>
     </row>
@@ -3068,6 +3418,10 @@
         <v>72</v>
       </c>
       <c r="B3" s="7">
+        <f>SUM('2019'!F4)</f>
+        <v>56</v>
+      </c>
+      <c r="C3" s="7">
         <f>SUM('2017'!F4+'2018'!J4)</f>
         <v>14</v>
       </c>
@@ -3085,17 +3439,24 @@
         <v>20</v>
       </c>
       <c r="B5" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" s="7" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="16">
         <f>SUM(A3/$B$8*100)</f>
-        <v>83.720930232558146</v>
+        <v>50.704225352112672</v>
       </c>
       <c r="B6" s="16">
         <f>SUM(B3/$B$8*100)</f>
-        <v>16.279069767441861</v>
+        <v>39.436619718309856</v>
+      </c>
+      <c r="C6" s="16">
+        <f>SUM(C3/$B$8*100)</f>
+        <v>9.8591549295774641</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
@@ -3103,8 +3464,8 @@
         <v>15</v>
       </c>
       <c r="B8" s="8">
-        <f>SUM('2017'!C10+'2018'!G10)</f>
-        <v>86</v>
+        <f>SUM('2017'!C10+'2018'!G10+'2019'!D10)</f>
+        <v>142</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
@@ -3112,8 +3473,8 @@
         <v>16</v>
       </c>
       <c r="B9" s="8">
-        <f>SUM('2017'!C11+'2018'!G11)</f>
-        <v>12</v>
+        <f>SUM('2017'!C11+'2018'!G11+'2019'!D11)</f>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
@@ -3122,15 +3483,15 @@
       </c>
       <c r="B10" s="15">
         <f>SUM(B8/B9)</f>
-        <v>7.166666666666667</v>
+        <v>7.8888888888888893</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="B11" s="19" t="s">
-        <v>30</v>
+      <c r="B11" s="24" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/2019/Hobbs/Hobbs Report.xlsx
+++ b/2019/Hobbs/Hobbs Report.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matt\Documents\GitHub\FitzFishing\2019\Hobbs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3524AE1-E644-4C90-B276-34F53CA67164}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBFA7948-F5E7-4138-85B5-DD3CEDFD9F21}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{C8B061DF-F30D-4D8E-9A49-1A7B2522362C}"/>
+    <workbookView xWindow="12030" yWindow="1410" windowWidth="15375" windowHeight="7875" activeTab="2" xr2:uid="{C8B061DF-F30D-4D8E-9A49-1A7B2522362C}"/>
   </bookViews>
   <sheets>
     <sheet name="2017" sheetId="2" r:id="rId1"/>
@@ -329,6 +329,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -337,10 +341,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1017,6 +1017,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-C0E8-4BFE-8C44-95684AF6AFD5}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:cat>
             <c:strRef>
@@ -2695,12 +2700,12 @@
       <c r="D2" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="20" t="s">
+      <c r="E2" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
     </row>
     <row r="3" spans="1:8" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A3" s="13"/>
@@ -2749,12 +2754,12 @@
       <c r="D5" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="E5" s="21" t="s">
+      <c r="E5" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="21"/>
-      <c r="G5" s="21"/>
-      <c r="H5" s="21"/>
+      <c r="F5" s="23"/>
+      <c r="G5" s="23"/>
+      <c r="H5" s="23"/>
     </row>
     <row r="6" spans="1:8" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
@@ -2902,23 +2907,23 @@
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
       <c r="G2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="H2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="20" t="s">
+      <c r="I2" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="J2" s="20"/>
-      <c r="K2" s="20"/>
-      <c r="L2" s="20"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22"/>
+      <c r="L2" s="22"/>
     </row>
     <row r="3" spans="1:12" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4"/>
@@ -2987,12 +2992,12 @@
       <c r="H5" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="I5" s="21" t="s">
+      <c r="I5" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="J5" s="21"/>
-      <c r="K5" s="21"/>
-      <c r="L5" s="21"/>
+      <c r="J5" s="23"/>
+      <c r="K5" s="23"/>
+      <c r="L5" s="23"/>
     </row>
     <row r="6" spans="1:12" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
@@ -3129,7 +3134,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D5DC392-685C-416A-87D1-C03A819CE030}">
   <dimension ref="A1:M13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
@@ -3155,26 +3160,26 @@
       <c r="A2" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="22"/>
+      <c r="C2" s="24"/>
       <c r="D2" s="19" t="s">
         <v>1</v>
       </c>
       <c r="E2" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="20" t="s">
+      <c r="F2" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
-      <c r="J2" s="23"/>
-      <c r="K2" s="23"/>
-      <c r="L2" s="23"/>
-      <c r="M2" s="23"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="20"/>
     </row>
     <row r="3" spans="1:13" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4"/>
@@ -3232,12 +3237,12 @@
       <c r="E5" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="F5" s="21" t="s">
+      <c r="F5" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="G5" s="21"/>
-      <c r="H5" s="21"/>
-      <c r="I5" s="21"/>
+      <c r="G5" s="23"/>
+      <c r="H5" s="23"/>
+      <c r="I5" s="23"/>
       <c r="J5" s="7"/>
       <c r="K5" s="7"/>
       <c r="L5" s="7"/>
@@ -3382,7 +3387,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D162D8B-5DB0-4D2E-8378-13E141A72211}">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
@@ -3394,12 +3399,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
     </row>
     <row r="2" spans="1:4" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
@@ -3427,12 +3432,12 @@
       </c>
     </row>
     <row r="4" spans="1:4" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="21" t="s">
+      <c r="A4" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="21"/>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
+      <c r="B4" s="23"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="23"/>
     </row>
     <row r="5" spans="1:4" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
@@ -3490,7 +3495,7 @@
       <c r="A11" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="B11" s="24" t="s">
+      <c r="B11" s="21" t="s">
         <v>31</v>
       </c>
     </row>
